--- a/Project/Assets/output/ant_colony_optimization.xlsx
+++ b/Project/Assets/output/ant_colony_optimization.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01034a1f-d14e-490f-a9a2-231f9716380a</t>
+          <t>149dc089-199f-45ff-8d82-0c5e9d4dadbd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -505,17 +505,19 @@
           <t>City_54</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>12.5</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>61.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05472442-2ddf-4762-8aa0-fcf756e5ad5a</t>
+          <t>7a474347-9e36-4429-86f8-22f8b80fc04e</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,17 +540,19 @@
           <t>City_54</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>12.5</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>61.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14e4c21f-a59d-4c67-9afe-02d96ba7b78d</t>
+          <t>a7311ed1-c800-4bf5-b2f8-7ee54ebbd926</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -571,17 +575,19 @@
           <t>City_54</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>12.5</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>61.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>87649d48-6db9-447a-a6a5-ebf41b2a2ae7</t>
+          <t>29f68e57-5f4d-48d2-88c2-4c3e68e437db</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -604,17 +610,19 @@
           <t>City_54</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>12.5</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>61.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1714d038-d9fc-46db-b9f5-314d13ba7268</t>
+          <t>89311613-6403-4896-9a9d-e861881b8c74</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -637,17 +645,19 @@
           <t>City_54</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>12.5</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>61.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>db7c8f74-cc53-4c60-b138-da305a8f230d</t>
+          <t>96869cfa-3681-48cc-8a8a-a5c3d7221d68</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -670,8 +680,10 @@
           <t>City_53</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>9.6</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>38.2</v>
@@ -680,7 +692,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fd89ea84-1ebc-41e9-aa25-ff17cd77dc82</t>
+          <t>7ac19ec2-dfc6-4f09-b0b2-63917f7f6abc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -703,8 +715,10 @@
           <t>City_53</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>9.6</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v>38.2</v>
@@ -713,7 +727,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>943d7b69-8333-40ee-8295-4a70eca89d0a</t>
+          <t>f7b576c4-71e5-460c-971f-26c44c397851</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -736,8 +750,10 @@
           <t>City_53</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>9.6</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v>38.2</v>
@@ -746,7 +762,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>57697685-e6b8-4392-9c6f-e458bd3b808f</t>
+          <t>c1df6199-cef7-4bd2-9944-b9e3fb4111f1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -769,17 +785,19 @@
           <t>City_53</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>12.5</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>15.28</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a646866e-678b-4b48-af97-80b4a2c8976d</t>
+          <t>af4a327c-19ad-46a5-8b6f-70ba17984e4a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -802,8 +820,10 @@
           <t>City_53</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>9.6</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>38.2</v>
